--- a/fe_client/Assets/ResourcesPrivate/terrain/demo/prefab/setting/sheet_map_setting.xlsx
+++ b/fe_client/Assets/ResourcesPrivate/terrain/demo/prefab/setting/sheet_map_setting.xlsx
@@ -7,6 +7,8 @@
     <sheet state="visible" name="status" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="item" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="localization" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="tag" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="scenario" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -243,6 +245,48 @@
   <si>
     <t>localization_demo/4000_name</t>
   </si>
+  <si>
+    <t>OWNER_TYPE</t>
+  </si>
+  <si>
+    <t>OWNER_VALUE</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE</t>
+  </si>
+  <si>
+    <t>TARGET_TYPE</t>
+  </si>
+  <si>
+    <t>TARGET_VALUE</t>
+  </si>
+  <si>
+    <t># Type : Entity(1), Faction(2), All(3), Position (100)</t>
+  </si>
+  <si>
+    <t># Value : Entity,Faction (ID),  Position( XXXYYY )</t>
+  </si>
+  <si>
+    <t># Attribute</t>
+  </si>
+  <si>
+    <t># TARGET_FOCUS (1), TARGET_IGNORE (2)</t>
+  </si>
+  <si>
+    <t># POSITION_VISIT (11), POSITION_EXIT(12)</t>
+  </si>
+  <si>
+    <t>진영(아군)_위치(탈출)_위치(015,001)</t>
+  </si>
+  <si>
+    <t>진영(적)_포커싱(제외)_유닛(선박)</t>
+  </si>
+  <si>
+    <t>유닛(해적3031)_포커싱_유닛(선박)</t>
+  </si>
+  <si>
+    <t>유닛(해적3032)_포커싱_유닛(선박)</t>
+  </si>
 </sst>
 </file>
 
@@ -337,6 +381,14 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -31775,4 +31827,176 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.13"/>
+    <col customWidth="1" min="2" max="2" width="31.5"/>
+    <col customWidth="1" min="3" max="3" width="14.63"/>
+    <col customWidth="1" min="4" max="4" width="16.38"/>
+    <col customWidth="1" min="5" max="5" width="16.5"/>
+    <col customWidth="1" min="6" max="6" width="15.38"/>
+    <col customWidth="1" min="7" max="7" width="14.5"/>
+    <col customWidth="1" min="8" max="8" width="14.88"/>
+    <col customWidth="1" min="9" max="9" width="16.38"/>
+    <col customWidth="1" min="10" max="10" width="18.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15001.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4001.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3031.0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4001.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3032.0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4001.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/fe_client/Assets/ResourcesPrivate/terrain/demo/prefab/setting/sheet_map_setting.xlsx
+++ b/fe_client/Assets/ResourcesPrivate/terrain/demo/prefab/setting/sheet_map_setting.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>LOCALIZATION_KIND</t>
+  </si>
+  <si>
+    <t>AI_TYPE</t>
   </si>
   <si>
     <t>제이드</t>
@@ -279,7 +282,7 @@
     <t># Attribute</t>
   </si>
   <si>
-    <t># TARGET_FOCUS (1), TARGET_IGNORE (2)</t>
+    <t># TARGET_FOCUS (1), TARGET_IGNORE (2), TARGET_CONTAIN (3)</t>
   </si>
   <si>
     <t># POSITION_VISIT (11), POSITION_EXIT(12)</t>
@@ -628,13 +631,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>1.0</v>
@@ -647,6 +653,9 @@
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -654,7 +663,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -667,6 +676,9 @@
       </c>
       <c r="F3" s="1">
         <v>2.0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -674,7 +686,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -687,6 +699,9 @@
       </c>
       <c r="F4" s="1">
         <v>3.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -694,7 +709,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
@@ -707,6 +722,9 @@
       </c>
       <c r="F5" s="1">
         <v>4.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -714,7 +732,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>1.0</v>
@@ -727,6 +745,9 @@
       </c>
       <c r="F6" s="1">
         <v>5.0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -734,7 +755,7 @@
         <v>3001.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>2.0</v>
@@ -747,6 +768,9 @@
       </c>
       <c r="F7" s="2">
         <v>3000.0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -754,7 +778,7 @@
         <v>3002.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>2.0</v>
@@ -767,6 +791,9 @@
       </c>
       <c r="F8" s="2">
         <v>3000.0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -774,7 +801,7 @@
         <v>3003.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>2.0</v>
@@ -787,6 +814,9 @@
       </c>
       <c r="F9" s="2">
         <v>3000.0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -794,7 +824,7 @@
         <v>3004.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>2.0</v>
@@ -807,6 +837,9 @@
       </c>
       <c r="F10" s="2">
         <v>3000.0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -814,7 +847,7 @@
         <v>3011.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <v>2.0</v>
@@ -827,6 +860,9 @@
       </c>
       <c r="F11" s="2">
         <v>3010.0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>30.0</v>
       </c>
     </row>
     <row r="12">
@@ -834,7 +870,7 @@
         <v>3012.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <v>2.0</v>
@@ -847,6 +883,9 @@
       </c>
       <c r="F12" s="2">
         <v>3010.0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -854,7 +893,7 @@
         <v>3021.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
         <v>2.0</v>
@@ -867,6 +906,9 @@
       </c>
       <c r="F13" s="2">
         <v>3020.0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -874,7 +916,7 @@
         <v>3022.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
         <v>2.0</v>
@@ -887,6 +929,9 @@
       </c>
       <c r="F14" s="2">
         <v>3020.0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -894,7 +939,7 @@
         <v>3031.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <v>2.0</v>
@@ -907,6 +952,9 @@
       </c>
       <c r="F15" s="2">
         <v>3030.0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
@@ -914,7 +962,7 @@
         <v>3032.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <v>2.0</v>
@@ -927,6 +975,9 @@
       </c>
       <c r="F16" s="2">
         <v>3030.0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -934,7 +985,7 @@
         <v>4001.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
         <v>3.0</v>
@@ -947,6 +998,9 @@
       </c>
       <c r="F17" s="2">
         <v>4000.0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>90.0</v>
       </c>
     </row>
     <row r="18">
@@ -954,7 +1008,7 @@
         <v>4002.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
         <v>3.0</v>
@@ -967,6 +1021,9 @@
       </c>
       <c r="F18" s="2">
         <v>4000.0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>90.0</v>
       </c>
     </row>
     <row r="19">
@@ -974,7 +1031,7 @@
         <v>4003.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4">
         <v>3.0</v>
@@ -987,6 +1044,9 @@
       </c>
       <c r="F19" s="4">
         <v>4000.0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>90.0</v>
       </c>
     </row>
   </sheetData>
@@ -1009,46 +1069,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -1067,7 +1127,7 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1102,7 +1162,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4">
         <v>1.0</v>
@@ -1160,7 +1220,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4">
         <v>1.0</v>
@@ -1218,7 +1278,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4">
         <v>4.0</v>
@@ -1276,7 +1336,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4">
         <v>7.0</v>
@@ -1334,7 +1394,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4">
         <v>2.0</v>
@@ -1392,7 +1452,7 @@
         <v>3000.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4">
         <v>1.0</v>
@@ -1450,7 +1510,7 @@
         <v>3010.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4">
         <v>1.0</v>
@@ -1508,7 +1568,7 @@
         <v>3020.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4">
         <v>2.0</v>
@@ -1566,7 +1626,7 @@
         <v>3030.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4">
         <v>1.0</v>
@@ -1624,7 +1684,7 @@
         <v>4000.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4">
         <v>1.0</v>
@@ -31337,7 +31397,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -31346,10 +31406,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -31357,7 +31417,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="9">
         <v>1003.0</v>
@@ -31370,7 +31430,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="9">
         <v>1100.0</v>
@@ -31383,7 +31443,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="9">
         <v>6001.0</v>
@@ -31396,7 +31456,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="9">
         <v>100001.0</v>
@@ -31409,7 +31469,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="9">
         <v>1004.0</v>
@@ -31422,7 +31482,7 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="9">
         <v>3002.0</v>
@@ -31435,7 +31495,7 @@
         <v>4.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="9">
         <v>3001.0</v>
@@ -31448,7 +31508,7 @@
         <v>5.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="9">
         <v>3003.0</v>
@@ -31461,7 +31521,7 @@
         <v>5.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="9">
         <v>3004.0</v>
@@ -31474,7 +31534,7 @@
         <v>3001.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="9">
         <v>2001.0</v>
@@ -31487,7 +31547,7 @@
         <v>3002.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="9">
         <v>2001.0</v>
@@ -31500,7 +31560,7 @@
         <v>3003.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="9">
         <v>2001.0</v>
@@ -31513,7 +31573,7 @@
         <v>3004.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="9">
         <v>2001.0</v>
@@ -31526,7 +31586,7 @@
         <v>3011.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="9">
         <v>8001.0</v>
@@ -31539,7 +31599,7 @@
         <v>3011.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9">
         <v>8002.0</v>
@@ -31554,7 +31614,7 @@
         <v>3012.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" s="9">
         <v>8001.0</v>
@@ -31567,7 +31627,7 @@
         <v>3012.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="9">
         <v>100001.0</v>
@@ -31582,7 +31642,7 @@
         <v>3021.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="9">
         <v>2002.0</v>
@@ -31595,7 +31655,7 @@
         <v>3022.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="9">
         <v>2002.0</v>
@@ -31608,7 +31668,7 @@
         <v>3022.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="9">
         <v>1.0</v>
@@ -31625,7 +31685,7 @@
         <v>3031.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="9">
         <v>2001.0</v>
@@ -31638,7 +31698,7 @@
         <v>3032.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="9">
         <v>2001.0</v>
@@ -31713,21 +31773,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -31738,13 +31798,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -31752,13 +31812,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -31766,13 +31826,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -31780,13 +31840,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -31794,13 +31854,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -31808,13 +31868,13 @@
         <v>3000.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -31822,13 +31882,13 @@
         <v>3010.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -31836,13 +31896,13 @@
         <v>3020.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -31850,13 +31910,13 @@
         <v>3030.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -31864,13 +31924,13 @@
         <v>4000.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -31905,44 +31965,44 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -31953,7 +32013,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1">
         <v>2.0</v>
@@ -31973,7 +32033,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" s="1">
         <v>2.0</v>
@@ -31993,7 +32053,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1">
         <v>1.0</v>
@@ -32013,7 +32073,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1">
         <v>1.0</v>

--- a/fe_client/Assets/ResourcesPrivate/terrain/demo/prefab/setting/sheet_map_setting.xlsx
+++ b/fe_client/Assets/ResourcesPrivate/terrain/demo/prefab/setting/sheet_map_setting.xlsx
@@ -3,12 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="entity" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="status" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="item" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="localization" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="tag" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="scenario" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="entity" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="status" sheetId="2" r:id="rId6"/>
+    <sheet state="visible" name="item" sheetId="3" r:id="rId7"/>
+    <sheet state="visible" name="localization" sheetId="4" r:id="rId8"/>
+    <sheet state="visible" name="script" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -258,46 +257,22 @@
     <t>localization_demo/4000_name</t>
   </si>
   <si>
-    <t>OWNER_TYPE</t>
+    <t>SCRIPT</t>
   </si>
   <si>
-    <t>OWNER_VALUE</t>
+    <t># 이 맵에서 사용할 스크립트들을 쭉 등록해두자</t>
   </si>
   <si>
-    <t>ATTRIBUTE</t>
+    <t>demo/script_01.setting</t>
   </si>
   <si>
-    <t>TARGET_TYPE</t>
+    <t>초기 맵 셋팅 관련</t>
   </si>
   <si>
-    <t>TARGET_VALUE</t>
+    <t>demo/script_02.intro</t>
   </si>
   <si>
-    <t># Type : Entity(1), Faction(2), All(3), Position (100)</t>
-  </si>
-  <si>
-    <t># Value : Entity,Faction (ID),  Position( XXXYYY )</t>
-  </si>
-  <si>
-    <t># Attribute</t>
-  </si>
-  <si>
-    <t># TARGET_FOCUS (1), TARGET_IGNORE (2), TARGET_CONTAIN (3)</t>
-  </si>
-  <si>
-    <t># POSITION_VISIT (11), POSITION_EXIT(12)</t>
-  </si>
-  <si>
-    <t>진영(아군)_위치(탈출)_위치(015,001)</t>
-  </si>
-  <si>
-    <t>진영(적)_포커싱(제외)_진영(선박)</t>
-  </si>
-  <si>
-    <t>유닛(해적3031)_포커싱_진영(선박)</t>
-  </si>
-  <si>
-    <t>유닛(해적3032)_포커싱_진영(선박)</t>
+    <t>초반 인트로 대화</t>
   </si>
 </sst>
 </file>
@@ -400,8 +375,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -862,7 +837,7 @@
         <v>3010.0</v>
       </c>
       <c r="G11" s="1">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -954,7 +929,7 @@
         <v>3030.0</v>
       </c>
       <c r="G15" s="1">
-        <v>10.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="16">
@@ -31948,164 +31923,42 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.88"/>
-    <col customWidth="1" min="2" max="2" width="31.5"/>
-    <col customWidth="1" min="3" max="3" width="14.63"/>
-    <col customWidth="1" min="4" max="4" width="16.38"/>
-    <col customWidth="1" min="5" max="5" width="16.5"/>
-    <col customWidth="1" min="6" max="6" width="15.38"/>
-    <col customWidth="1" min="7" max="7" width="14.5"/>
-    <col customWidth="1" min="8" max="8" width="14.88"/>
-    <col customWidth="1" min="9" max="9" width="16.38"/>
-    <col customWidth="1" min="10" max="10" width="18.38"/>
+    <col customWidth="1" min="1" max="1" width="27.38"/>
+    <col customWidth="1" min="2" max="2" width="31.38"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>15001.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3031.0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3032.0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3.0</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>